--- a/data/maindata.xlsx
+++ b/data/maindata.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26330"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="560" yWindow="1640" windowWidth="25040" windowHeight="14420" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="entries" sheetId="1" r:id="rId1"/>
     <sheet name="source" sheetId="2" r:id="rId2"/>
+    <sheet name="layout" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="583" uniqueCount="392">
   <si>
     <t>num</t>
   </si>
@@ -1287,6 +1288,84 @@
   <si>
     <t>Source: Star Tribune analysis</t>
   </si>
+  <si>
+    <t>tab</t>
+  </si>
+  <si>
+    <t>source</t>
+  </si>
+  <si>
+    <t>entries</t>
+  </si>
+  <si>
+    <t>Bike blog entries</t>
+  </si>
+  <si>
+    <t>Star Tribune</t>
+  </si>
+  <si>
+    <t>Day number</t>
+  </si>
+  <si>
+    <t>Entry number</t>
+  </si>
+  <si>
+    <t>Last stop of day</t>
+  </si>
+  <si>
+    <t>Distance biked</t>
+  </si>
+  <si>
+    <t>Total miles biked</t>
+  </si>
+  <si>
+    <t>Average speed bked</t>
+  </si>
+  <si>
+    <t>Duration bikes</t>
+  </si>
+  <si>
+    <t>Average terrain elevation</t>
+  </si>
+  <si>
+    <t>Daily weather</t>
+  </si>
+  <si>
+    <t>Latitude coordinate</t>
+  </si>
+  <si>
+    <t>Longitude coordinate</t>
+  </si>
+  <si>
+    <t>Center x coordinate</t>
+  </si>
+  <si>
+    <t>Center y coordinate</t>
+  </si>
+  <si>
+    <t>Blog entry title</t>
+  </si>
+  <si>
+    <t>Blog entry date</t>
+  </si>
+  <si>
+    <t>Blog entry description</t>
+  </si>
+  <si>
+    <t>Blog entry</t>
+  </si>
+  <si>
+    <t>Blog entry photo URL</t>
+  </si>
+  <si>
+    <t>Blog entry photo caption</t>
+  </si>
+  <si>
+    <t>Blog entry video embed</t>
+  </si>
+  <si>
+    <t>Other media embed</t>
+  </si>
 </sst>
 </file>
 
@@ -1296,7 +1375,7 @@
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="#,###"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1373,6 +1452,18 @@
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="11"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1427,10 +1518,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1480,8 +1572,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Followed Hyperlink" xfId="1" builtinId="9" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1813,7 +1907,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF1019"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
@@ -2574,7 +2670,7 @@
       <c r="AE11" s="15"/>
       <c r="AF11" s="15"/>
     </row>
-    <row r="12" spans="1:32">
+    <row r="12" spans="1:32" ht="16">
       <c r="A12" s="5">
         <v>50</v>
       </c>
@@ -2648,7 +2744,7 @@
       <c r="AE12" s="15"/>
       <c r="AF12" s="15"/>
     </row>
-    <row r="13" spans="1:32">
+    <row r="13" spans="1:32" ht="16">
       <c r="A13" s="5">
         <v>49</v>
       </c>
@@ -26119,6 +26215,7 @@
     <hyperlink ref="R59" r:id="rId23"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -26129,22 +26226,240 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="41" customFormat="1">
+      <c r="A6" s="41" t="s">
+        <v>366</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="41" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>368</v>
+      </c>
+      <c r="B7" t="s">
+        <v>369</v>
+      </c>
+      <c r="C7" t="s">
+        <v>370</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:B23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2">
-        <v>2015</v>
+    <row r="2" spans="1:2">
+      <c r="A2" s="41" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>391</v>
       </c>
     </row>
   </sheetData>
